--- a/biology/Médecine/John_Kearsley_Mitchell/John_Kearsley_Mitchell.xlsx
+++ b/biology/Médecine/John_Kearsley_Mitchell/John_Kearsley_Mitchell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Kearsley Mitchell (12 mai 1798 – 4 avril 1858) était un médecin et écrivain américain, né à Shepherdstown, Virginie (aujourd'hui Virginie de l'Ouest). Il sortit diplômé de l'école de médecine de l'Université de Pennsylvanie en 1819. Avant d'installer son cabinet à Philadelphie, il fit trois voyages vers l'Extrême-Orient en tant que chirurgien de bord. En 1826, il devint professeur de médecine et de physiologie à l'Institut de médecine de Philadelphe et, en 1833, professeur de chimie à l'Institut Franklin. De 1841 à 1858, il enseigna la théorie et la pratique de la médecine au Jefferson Medical College.
 Il fut aussi le père du médecin et écrivain Silas Weir Mitchell (15 février 1829 – 4 janvier 1914).
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sainte-Hélène (1821), un poème
 Sur la Sagesse, la bonté et la puissance de Dieu, comme illustré dans les propriétés de l'eau (1834)
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Société Edgar Allan Poe de Baltimore</t>
         </is>
